--- a/ig/main/StructureDefinition-ror-meta-comment.xlsx
+++ b/ig/main/StructureDefinition-ror-meta-comment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-11T09:33:07+00:00</t>
+    <t>2023-04-11T13:02:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-meta-comment.xlsx
+++ b/ig/main/StructureDefinition-ror-meta-comment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-11T13:02:58+00:00</t>
+    <t>2023-04-12T12:26:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-meta-comment.xlsx
+++ b/ig/main/StructureDefinition-ror-meta-comment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-12T12:26:01+00:00</t>
+    <t>2023-04-12T14:42:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-meta-comment.xlsx
+++ b/ig/main/StructureDefinition-ror-meta-comment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-12T14:42:58+00:00</t>
+    <t>2023-04-12T15:04:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-meta-comment.xlsx
+++ b/ig/main/StructureDefinition-ror-meta-comment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-12T15:04:36+00:00</t>
+    <t>2023-04-12T15:32:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-meta-comment.xlsx
+++ b/ig/main/StructureDefinition-ror-meta-comment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-12T15:32:06+00:00</t>
+    <t>2023-04-12T16:09:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-meta-comment.xlsx
+++ b/ig/main/StructureDefinition-ror-meta-comment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-12T16:09:30+00:00</t>
+    <t>2023-04-19T09:29:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-meta-comment.xlsx
+++ b/ig/main/StructureDefinition-ror-meta-comment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-19T09:29:32+00:00</t>
+    <t>2023-04-27T07:56:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-meta-comment.xlsx
+++ b/ig/main/StructureDefinition-ror-meta-comment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-27T07:56:45+00:00</t>
+    <t>2023-04-28T06:37:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-meta-comment.xlsx
+++ b/ig/main/StructureDefinition-ror-meta-comment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-28T06:37:34+00:00</t>
+    <t>2023-04-28T06:38:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-meta-comment.xlsx
+++ b/ig/main/StructureDefinition-ror-meta-comment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-28T06:38:38+00:00</t>
+    <t>2023-05-10T10:36:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
